--- a/Team-Data/2012-13/4-11-2012-13.xlsx
+++ b/Team-Data/2012-13/4-11-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -792,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -959,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="AO3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP3" t="n">
         <v>19</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>9</v>
@@ -983,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.551</v>
+        <v>0.545</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U6" t="n">
         <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1463,19 +1530,19 @@
         <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1484,16 +1551,16 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
@@ -1520,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1532,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1541,10 +1608,10 @@
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1860,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1869,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2066,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
         <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n">
-        <v>0.57</v>
+        <v>0.577</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
         <v>83.09999999999999</v>
@@ -2331,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.402</v>
@@ -2340,13 +2407,13 @@
         <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
         <v>34.1</v>
@@ -2355,13 +2422,13 @@
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
         <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
         <v>4.2</v>
@@ -2370,19 +2437,19 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA11" t="n">
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2445,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2630,7 +2697,7 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -3122,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3170,7 +3237,7 @@
         <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3310,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3677,13 +3744,13 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>14</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
         <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.654</v>
+        <v>0.662</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
         <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O21" t="n">
         <v>16.3</v>
@@ -4169,13 +4236,13 @@
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
         <v>12.1</v>
@@ -4190,40 +4257,40 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,19 +4305,19 @@
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,16 +4326,16 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
         <v>0.481</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O22" t="n">
         <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
         <v>0.829</v>
@@ -4351,19 +4418,19 @@
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
         <v>15.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>7.7</v>
@@ -4378,13 +4445,13 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>17</v>
@@ -4435,19 +4502,19 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>4</v>
@@ -5512,10 +5579,10 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5539,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2012-13</t>
+          <t>2013-04-11</t>
         </is>
       </c>
     </row>
